--- a/build2.7/results/2.7b_idc4_npe0_results.xlsx
+++ b/build2.7/results/2.7b_idc4_npe0_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{775148D5-AB98-4727-8F07-35BE1E568EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B07246-D99A-4B56-BEB3-F74C4B83E153}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="8_{775148D5-AB98-4727-8F07-35BE1E568EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E077406-135D-4275-A2D3-99D4EFC0CFD5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D8A18C2A-260B-42CA-89BA-F7D41395264B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{D8A18C2A-260B-42CA-89BA-F7D41395264B}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="84">
   <si>
     <t>potato</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>orchard</t>
-  </si>
-  <si>
-    <t>pasture</t>
   </si>
 </sst>
 </file>
@@ -685,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333709D9-E2F9-4B1C-9D05-12CEF2F8286A}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1035,10 +1032,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2672171460369.5674</v>
+        <v>2805550240019.7905</v>
       </c>
       <c r="D17">
-        <v>9788173847507.5723</v>
+        <v>10276740805933.297</v>
       </c>
       <c r="E17">
         <v>169.7</v>
@@ -1047,13 +1044,13 @@
         <v>46.3</v>
       </c>
       <c r="G17">
-        <v>214.62116567191393</v>
+        <v>225.33376760969122</v>
       </c>
       <c r="H17">
-        <v>58.59157822843251</v>
+        <v>61.516118557445715</v>
       </c>
       <c r="I17">
-        <v>44.92116567191394</v>
+        <v>55.633767609691233</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1151,10 +1148,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>82273355715896.313</v>
+        <v>82406734495546.547</v>
       </c>
       <c r="D21">
-        <v>65717726671060.484</v>
+        <v>66206293629486.211</v>
       </c>
       <c r="E21">
         <v>806.59999999999991</v>
@@ -1163,13 +1160,13 @@
         <v>1471.1000000000004</v>
       </c>
       <c r="G21">
-        <v>1440.9649157429637</v>
+        <v>1451.6775176807409</v>
       </c>
       <c r="H21">
-        <v>1803.9732214178</v>
+        <v>1806.8977617468131</v>
       </c>
       <c r="I21">
-        <v>634.36491574296372</v>
+        <v>645.07751768074093</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2382,16 +2379,16 @@
         <v>2461.5000000000009</v>
       </c>
       <c r="D2">
-        <v>2071.9550364313463</v>
+        <v>2074.3096540334068</v>
       </c>
       <c r="E2">
-        <v>96.022288721039445</v>
+        <v>96.131410669748377</v>
       </c>
       <c r="F2">
         <v>2157.7855142056828</v>
       </c>
       <c r="G2">
-        <v>-85.830477774336487</v>
+        <v>-83.475860172276043</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2405,16 +2402,16 @@
         <v>92.90000000000002</v>
       </c>
       <c r="D3">
-        <v>49.756893159963276</v>
+        <v>49.882731629334181</v>
       </c>
       <c r="E3">
-        <v>70.951342873929562</v>
+        <v>71.130783506574417</v>
       </c>
       <c r="F3">
         <v>70.128190876350558</v>
       </c>
       <c r="G3">
-        <v>-20.371297716387282</v>
+        <v>-20.245459247016377</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2428,16 +2425,16 @@
         <v>60.9</v>
       </c>
       <c r="D4">
-        <v>14.459355844258566</v>
+        <v>14.476851675698938</v>
       </c>
       <c r="E4">
-        <v>22.336720909880459</v>
+        <v>22.363748358971495</v>
       </c>
       <c r="F4">
         <v>64.733565426170472</v>
       </c>
       <c r="G4">
-        <v>-50.274209581911904</v>
+        <v>-50.256713750471533</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2451,16 +2448,16 @@
         <v>299.09999999999991</v>
       </c>
       <c r="D5">
-        <v>415.02288009743256</v>
+        <v>415.44633040783594</v>
       </c>
       <c r="E5">
-        <v>128.22494091439222</v>
+        <v>128.35576958344996</v>
       </c>
       <c r="F5">
         <v>323.66782713085234</v>
       </c>
       <c r="G5">
-        <v>91.355052966580217</v>
+        <v>91.778503276983599</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2474,16 +2471,16 @@
         <v>2461.5000000000009</v>
       </c>
       <c r="D6">
-        <v>1622.9892192430391</v>
+        <v>1622.419296516086</v>
       </c>
       <c r="E6">
-        <v>75.215502586247027</v>
+        <v>75.189090196173922</v>
       </c>
       <c r="F6">
         <v>2157.7855142056828</v>
       </c>
       <c r="G6">
-        <v>-534.79629496264374</v>
+        <v>-535.36621768959685</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2497,16 +2494,16 @@
         <v>92.90000000000002</v>
       </c>
       <c r="D7">
-        <v>56.469703335313454</v>
+        <v>56.456277979493251</v>
       </c>
       <c r="E7">
-        <v>80.523542144243194</v>
+        <v>80.504398122912491</v>
       </c>
       <c r="F7">
         <v>70.128190876350558</v>
       </c>
       <c r="G7">
-        <v>-13.658487541037104</v>
+        <v>-13.671912896857307</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2520,16 +2517,16 @@
         <v>60.9</v>
       </c>
       <c r="D8">
-        <v>17.185586556541615</v>
+        <v>17.181657184106431</v>
       </c>
       <c r="E8">
-        <v>26.548184768444457</v>
+        <v>26.542114698907401</v>
       </c>
       <c r="F8">
         <v>64.733565426170472</v>
       </c>
       <c r="G8">
-        <v>-47.547978869628857</v>
+        <v>-47.551908242064044</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2543,16 +2540,16 @@
         <v>299.09999999999991</v>
       </c>
       <c r="D9">
-        <v>297.09323819670533</v>
+        <v>296.97302395876653</v>
       </c>
       <c r="E9">
-        <v>91.789548819319791</v>
+        <v>91.75240758133998</v>
       </c>
       <c r="F9">
         <v>323.66782713085234</v>
       </c>
       <c r="G9">
-        <v>-26.574588934147016</v>
+        <v>-26.694803172085813</v>
       </c>
     </row>
   </sheetData>
@@ -2700,19 +2697,19 @@
         <v>48</v>
       </c>
       <c r="C7">
-        <v>9788173847507.5723</v>
+        <v>10276740805933.297</v>
       </c>
       <c r="D7">
         <v>241.39999999999998</v>
       </c>
       <c r="E7">
-        <v>214.62116567191393</v>
+        <v>225.33376760969122</v>
       </c>
       <c r="F7">
-        <v>-26.778834328086049</v>
+        <v>-16.066232390308755</v>
       </c>
       <c r="G7">
-        <v>88.906862333021508</v>
+        <v>93.344559904594547</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3151,14 +3148,11 @@
       <c r="C2">
         <v>209.8</v>
       </c>
-      <c r="I2">
-        <v>498.1</v>
-      </c>
       <c r="N2">
         <v>366.8</v>
       </c>
       <c r="T2">
-        <v>185.28213762526775</v>
+        <v>195.36637075410198</v>
       </c>
       <c r="V2">
         <v>3.1</v>
@@ -3167,7 +3161,7 @@
         <v>51.2</v>
       </c>
       <c r="AA2">
-        <v>1314.2821376252678</v>
+        <v>826.26637075410201</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -3190,7 +3184,7 @@
         <v>1109.9999999999995</v>
       </c>
       <c r="T3">
-        <v>185.28213762526775</v>
+        <v>195.36637075410198</v>
       </c>
       <c r="U3">
         <v>36.200000000000003</v>
@@ -3202,7 +3196,7 @@
         <v>92.847999999999999</v>
       </c>
       <c r="AA3">
-        <v>4211.7301376252672</v>
+        <v>4221.8143707541012</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -3241,9 +3235,6 @@
       <c r="E5">
         <v>1109.9999999999998</v>
       </c>
-      <c r="I5">
-        <v>498.1</v>
-      </c>
       <c r="L5">
         <v>792.6</v>
       </c>
@@ -3254,7 +3245,7 @@
         <v>366.8</v>
       </c>
       <c r="T5">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="U5">
         <v>36.200000000000003</v>
@@ -3282,9 +3273,6 @@
       <c r="D6">
         <v>418</v>
       </c>
-      <c r="I6">
-        <v>498.1</v>
-      </c>
       <c r="T6">
         <v>366.8</v>
       </c>
@@ -3295,7 +3283,7 @@
         <v>51.2</v>
       </c>
       <c r="AA6">
-        <v>1547</v>
+        <v>1048.8999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -3371,9 +3359,6 @@
       </c>
       <c r="E9">
         <v>1110</v>
-      </c>
-      <c r="I9">
-        <v>498.1</v>
       </c>
       <c r="K9">
         <v>33.5</v>
@@ -3532,12 +3517,8 @@
       <c r="T12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
@@ -3594,12 +3575,8 @@
       <c r="T13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
@@ -3615,10 +3592,10 @@
         <v>1109.9999999999998</v>
       </c>
       <c r="M14">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="P14">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="Q14">
         <v>36.200000000000003</v>
@@ -3647,10 +3624,10 @@
         <v>1109.9999999999998</v>
       </c>
       <c r="M15">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="P15">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="Q15">
         <v>36.200000000000003</v>
@@ -3679,10 +3656,10 @@
         <v>1109.9999999999998</v>
       </c>
       <c r="M16">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="P16">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="Q16">
         <v>36.200000000000003</v>
@@ -3697,7 +3674,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3711,10 +3688,10 @@
         <v>1109.9999999999998</v>
       </c>
       <c r="M17">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="P17">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="Q17">
         <v>36.200000000000003</v>
@@ -3729,7 +3706,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3755,13 +3732,13 @@
         <v>183.4</v>
       </c>
       <c r="M18">
-        <v>385.43213762526773</v>
+        <v>395.51637075410196</v>
       </c>
       <c r="O18">
         <v>51.2</v>
       </c>
       <c r="P18">
-        <v>1016.3321376252678</v>
+        <v>1026.416370754102</v>
       </c>
       <c r="Q18">
         <v>36.200000000000003</v>
@@ -3775,14 +3752,8 @@
       <c r="T18">
         <v>166.048</v>
       </c>
-      <c r="U18">
-        <v>498.1</v>
-      </c>
-      <c r="V18">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3828,14 +3799,8 @@
       <c r="T19">
         <v>166.048</v>
       </c>
-      <c r="U19">
-        <v>498.1</v>
-      </c>
-      <c r="V19">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3881,14 +3846,8 @@
       <c r="T20">
         <v>166.048</v>
       </c>
-      <c r="U20">
-        <v>498.1</v>
-      </c>
-      <c r="V20">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3934,14 +3893,8 @@
       <c r="T21">
         <v>166.048</v>
       </c>
-      <c r="U21">
-        <v>498.1</v>
-      </c>
-      <c r="V21">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3987,14 +3940,8 @@
       <c r="T22">
         <v>166.048</v>
       </c>
-      <c r="U22">
-        <v>498.1</v>
-      </c>
-      <c r="V22">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -4008,13 +3955,13 @@
         <v>1096.8</v>
       </c>
       <c r="M23">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="O23">
         <v>51.2</v>
       </c>
       <c r="P23">
-        <v>455.26427525053549</v>
+        <v>475.43274150820395</v>
       </c>
       <c r="Q23">
         <v>36.200000000000003</v>
@@ -4028,14 +3975,8 @@
       <c r="T23">
         <v>166.048</v>
       </c>
-      <c r="U23">
-        <v>249.05</v>
-      </c>
-      <c r="V23">
-        <v>249.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -4049,10 +3990,10 @@
         <v>1109.9999999999998</v>
       </c>
       <c r="M24">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="P24">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="Q24">
         <v>36.200000000000003</v>
@@ -4067,7 +4008,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4081,10 +4022,10 @@
         <v>1109.9999999999998</v>
       </c>
       <c r="M25">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="P25">
-        <v>404.0642752505355</v>
+        <v>424.23274150820396</v>
       </c>
       <c r="Q25">
         <v>36.200000000000003</v>
@@ -4099,7 +4040,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4134,7 +4075,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -4169,7 +4110,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,7 +4145,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -4239,7 +4180,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -4282,14 +4223,8 @@
       <c r="T30">
         <v>166.048</v>
       </c>
-      <c r="U30">
-        <v>498.1</v>
-      </c>
-      <c r="V30">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -4332,14 +4267,8 @@
       <c r="T31">
         <v>166.048</v>
       </c>
-      <c r="U31">
-        <v>498.1</v>
-      </c>
-      <c r="V31">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -4379,14 +4308,8 @@
       <c r="T32">
         <v>166.048</v>
       </c>
-      <c r="U32">
-        <v>498.1</v>
-      </c>
-      <c r="V32">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4429,14 +4352,8 @@
       <c r="T33">
         <v>166.048</v>
       </c>
-      <c r="U33">
-        <v>498.1</v>
-      </c>
-      <c r="V33">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -4479,14 +4396,8 @@
       <c r="T34">
         <v>166.048</v>
       </c>
-      <c r="U34">
-        <v>498.1</v>
-      </c>
-      <c r="V34">
-        <v>498.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -4529,14 +4440,8 @@
       <c r="T35">
         <v>166.048</v>
       </c>
-      <c r="U35">
-        <v>249.05</v>
-      </c>
-      <c r="V35">
-        <v>249.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -4571,7 +4476,7 @@
         <v>166.048</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -4616,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F373F5-1F45-4EA9-9839-738EB6A7F31A}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -4728,9 +4633,6 @@
       <c r="D2">
         <v>3.662999999999992E-2</v>
       </c>
-      <c r="H2">
-        <v>1.6437299999999967E-2</v>
-      </c>
       <c r="K2">
         <v>0.6816359999999988</v>
       </c>
@@ -4741,7 +4643,7 @@
         <v>4.0347999999999919E-2</v>
       </c>
       <c r="S2">
-        <v>0.65862476865837161</v>
+        <v>0.69149936865837103</v>
       </c>
       <c r="T2">
         <v>9.665399999999981E-2</v>
@@ -4771,7 +4673,7 @@
         <v>1.1082208174603145E-3</v>
       </c>
       <c r="AG2">
-        <v>3.3166148843291858</v>
+        <v>3.3330521843291856</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -4787,9 +4689,6 @@
       <c r="D3">
         <v>3.6629999999999927E-2</v>
       </c>
-      <c r="H3">
-        <v>1.6437299999999967E-2</v>
-      </c>
       <c r="J3">
         <v>1.1054999999999978E-3</v>
       </c>
@@ -4827,7 +4726,7 @@
         <v>1.1082208174603143E-3</v>
       </c>
       <c r="AG3">
-        <v>3.2537703074954085</v>
+        <v>3.2373330074954088</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -4977,7 +4876,7 @@
         <v>1.6765839999999965</v>
       </c>
       <c r="F7">
-        <v>0.65862476865837161</v>
+        <v>0.69149936865837103</v>
       </c>
       <c r="G7">
         <v>0.44334815999999916</v>
@@ -4989,7 +4888,7 @@
         <v>0.22021207120473121</v>
       </c>
       <c r="K7">
-        <v>3.3001775843291861</v>
+        <v>3.3330521843291856</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
